--- a/biology/Médecine/Côlon_ascendant/Côlon_ascendant.xlsx
+++ b/biology/Médecine/Côlon_ascendant/Côlon_ascendant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4lon_ascendant</t>
+          <t>Côlon_ascendant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le côlon ascendant est la première partie du côlon. Elle s'étend du cæcum à l'angle colique droit (ou angle hépatique), qui donne naissance au côlon transverse. C'est le plus volumineux segment du côlon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4lon_ascendant</t>
+          <t>Côlon_ascendant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Configuration externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le côlon ascendant a une disposition verticale. Il est situé à droite dans la cavité abdominale. Il est constitué, comme le reste du gros intestin, par une alternance entre des zones dilatées : les haustrations, et de zones rétrécies : les plis semi-lunaires.
 Il possède en surface trois bandelettes (une sur la face antérieure, deux sur la face postérieure).
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%B4lon_ascendant</t>
+          <t>Côlon_ascendant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Configuration interne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Globalement identique à celle de l'ensemble de l'intestin, elle est constituée de plusieurs couches concentriques, ainsi réparties de la plus interne à la plus externe : 
 une muqueuse, sans valve ni valvule
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%B4lon_ascendant</t>
+          <t>Côlon_ascendant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Topographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé dans les régions du flanc et de l'hypochondre droit.
 Il monte jusqu'à hauteur de la deuxième vertèbre lombale.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%B4lon_ascendant</t>
+          <t>Côlon_ascendant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Rapports</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Avec le péritoine : il est entouré de péritoine viscéral, qui se réfléchit vers l'arrière en péritoine pariétal, formant ainsi le fascia de Toldt, qui l'accole à la paroi postérieure. Ainsi, le côlon ascendant est un segment non-mobile du gros intestin
 Postérieurs : il entre en rapport avec le flanc droit de la colonne vertébrale
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C%C3%B4lon_ascendant</t>
+          <t>Côlon_ascendant</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est assurée par la circulation mésentérique supérieure.
 </t>
@@ -655,7 +677,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C%C3%B4lon_ascendant</t>
+          <t>Côlon_ascendant</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -673,7 +695,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">De type neurovégétative (involontaire), elle est constituée de voies sympathiques et parasympathiques, à la fois sensitives et motrices, dont les fibres naissent du plexus aorto-mésentérique.
 </t>
